--- a/data_source/InfoStat - Cleaned/infostat_bg_pop_by_age_sex_reg.xlsx
+++ b/data_source/InfoStat - Cleaned/infostat_bg_pop_by_age_sex_reg.xlsx
@@ -2358,7 +2358,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Date of preparation of inquiry 13/04/2021</t>
+    <t>Date of preparation of inquiry 14/04/2021</t>
   </si>
 </sst>
 </file>
